--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc208_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc208_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -512,10 +536,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -559,28 +583,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="3">
+      <c r="A15" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="3">
+      <c r="B15" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="3">
+      <c r="C15" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="3">
+      <c r="D15" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="3">
+      <c r="E15" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="3">
+      <c r="F15" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="3">
+      <c r="G15" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="3">
+      <c r="H15" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -605,28 +629,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="3">
+      <c r="B17" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="3">
+      <c r="C17" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="3">
+      <c r="D17" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="3">
+      <c r="F17" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="3">
+      <c r="G17" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="3">
+      <c r="H17" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="3">
+      <c r="I17" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -917,10 +941,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -964,28 +988,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="3">
+      <c r="A29" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="3">
+      <c r="B29" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="3">
+      <c r="C29" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="3">
+      <c r="D29" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="3">
+      <c r="E29" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="3">
+      <c r="F29" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="3">
+      <c r="G29" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="3">
+      <c r="H29" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1010,28 +1034,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="3">
+      <c r="B31" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="3">
+      <c r="C31" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="3">
+      <c r="D31" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="3">
+      <c r="F31" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="3">
+      <c r="G31" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="3">
+      <c r="H31" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="3">
+      <c r="I31" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1351,10 +1375,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1398,28 +1422,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="3">
+      <c r="A44" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="3">
+      <c r="B44" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="3">
+      <c r="C44" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="3">
+      <c r="D44" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="3">
+      <c r="E44" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="3">
+      <c r="F44" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="3">
+      <c r="G44" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="3">
+      <c r="H44" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1444,28 +1468,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="3">
+      <c r="B46" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="3">
+      <c r="C46" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="3">
+      <c r="D46" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="3">
+      <c r="E46" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="3">
+      <c r="F46" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="3">
+      <c r="G46" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="3">
+      <c r="H46" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="3">
+      <c r="I46" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1959,10 +1983,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J63" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="K63" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2006,28 +2030,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="3">
+      <c r="A65" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="3">
+      <c r="B65" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="3">
+      <c r="C65" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D65" t="s" s="3">
+      <c r="D65" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="3">
+      <c r="E65" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="3">
+      <c r="F65" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="3">
+      <c r="G65" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="3">
+      <c r="H65" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2052,28 +2076,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="3">
+      <c r="B67" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="3">
+      <c r="C67" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="3">
+      <c r="D67" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="3">
+      <c r="E67" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="3">
+      <c r="F67" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="3">
+      <c r="G67" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="3">
+      <c r="H67" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="3">
+      <c r="I67" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2480,10 +2504,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J81" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="K81" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2527,28 +2551,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="3">
+      <c r="A83" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="3">
+      <c r="B83" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="3">
+      <c r="C83" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D83" t="s" s="3">
+      <c r="D83" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="3">
+      <c r="E83" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="3">
+      <c r="F83" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="3">
+      <c r="G83" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="3">
+      <c r="H83" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2573,28 +2597,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="3">
+      <c r="B85" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="3">
+      <c r="C85" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="3">
+      <c r="D85" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="3">
+      <c r="F85" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="3">
+      <c r="G85" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="3">
+      <c r="H85" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="3">
+      <c r="I85" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3001,10 +3025,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="3" t="s">
+      <c r="J99" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K99" s="3" t="s">
+      <c r="K99" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3048,28 +3072,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="3">
+      <c r="A101" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="3">
+      <c r="C101" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D101" t="s" s="3">
+      <c r="D101" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3094,28 +3118,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="3">
+      <c r="B103" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="3">
+      <c r="C103" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="3">
+      <c r="D103" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="3">
+      <c r="E103" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="3">
+      <c r="F103" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="3">
+      <c r="G103" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="3">
+      <c r="H103" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="3">
+      <c r="I103" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3551,10 +3575,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="3" t="s">
+      <c r="J118" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K118" s="3" t="s">
+      <c r="K118" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3598,28 +3622,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="3">
+      <c r="A120" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="3">
+      <c r="B120" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="3">
+      <c r="C120" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D120" t="s" s="3">
+      <c r="D120" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="3">
+      <c r="E120" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="3">
+      <c r="F120" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="3">
+      <c r="G120" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="3">
+      <c r="H120" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3644,28 +3668,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="3">
+      <c r="B122" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="3">
+      <c r="C122" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="3">
+      <c r="D122" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="3">
+      <c r="E122" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="3">
+      <c r="F122" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="3">
+      <c r="G122" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="3">
+      <c r="H122" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="3">
+      <c r="I122" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4043,10 +4067,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="3" t="s">
+      <c r="J135" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K135" s="3" t="s">
+      <c r="K135" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4090,28 +4114,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="3">
+      <c r="A137" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="3">
+      <c r="B137" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="3">
+      <c r="C137" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D137" t="s" s="3">
+      <c r="D137" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="3">
+      <c r="E137" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="3">
+      <c r="F137" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="3">
+      <c r="G137" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="3">
+      <c r="H137" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4136,28 +4160,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="3">
+      <c r="B139" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="3">
+      <c r="C139" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="3">
+      <c r="D139" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="3">
+      <c r="E139" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="3">
+      <c r="F139" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="3">
+      <c r="G139" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="3">
+      <c r="H139" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="3">
+      <c r="I139" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4361,10 +4385,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="3" t="s">
+      <c r="J146" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K146" s="3" t="s">
+      <c r="K146" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
